--- a/Decuments/Productbacklog_group90.xlsx
+++ b/Decuments/Productbacklog_group90.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7017AB38-1F48-44B4-917A-6B297D6DEFC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2CEC41B-C32F-470B-8A2C-84CEF44ED1A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="108">
   <si>
     <t>Story ID</t>
   </si>
@@ -1225,12 +1225,254 @@
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>0305</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Photo Changing </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">As a  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> student      
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>I want to</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> change my photo.
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">So that   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>I can use my own photo as my profile photo in the system.</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1)	Verify if the photo is in the regular size.
+2)	 Verify if the photo matches the user.
+3)	 Verify if each user has at least one profile pictures.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Updating photo is not a compulsory work. There is a default picture for each person.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0401</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0402</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1)	Verify if all roles are recorded correctly.
+2)	Verify if all information can be modified correctly.
+3)	 Verify if all information can be loaded successfully every time.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Updating record is not a compulsory work. There is a default picture for each person.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023.05.13</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023.05.20</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Roles Undertaken</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Awards</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Updating award is not a compulsory work. There is a default picture for each person.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">  As a   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">     student      
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">  I want to</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> have some ways to record what roles I have undertaken.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">  So that </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">   I can use this records to update my resume any time.</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> As a    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">    student      
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">  I want to</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> have some ways to record what roles I have undertaken before.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">  So that</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">    I can use this records to update my resume any time.</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1267,6 +1509,13 @@
     <font>
       <b/>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -1314,7 +1563,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1338,6 +1587,30 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1680,8 +1953,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1949,7 +2222,7 @@
       <c r="F9" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="G9" s="1" t="s">
         <v>51</v>
       </c>
       <c r="H9" s="4" t="s">
@@ -1978,7 +2251,7 @@
       <c r="F10" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="G10" s="1" t="s">
         <v>52</v>
       </c>
       <c r="H10" s="4" t="s">
@@ -2007,7 +2280,7 @@
       <c r="F11" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="G11" s="1" t="s">
         <v>56</v>
       </c>
       <c r="H11" s="4" t="s">
@@ -2036,7 +2309,7 @@
       <c r="F12" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="G12" s="4" t="s">
+      <c r="G12" s="1" t="s">
         <v>63</v>
       </c>
       <c r="H12" s="4" t="s">
@@ -2094,7 +2367,7 @@
       <c r="F14" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="G14" s="4" t="s">
+      <c r="G14" s="1" t="s">
         <v>72</v>
       </c>
       <c r="H14" s="4" t="s">
@@ -2123,7 +2396,7 @@
       <c r="F15" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="G15" s="4" t="s">
+      <c r="G15" s="1" t="s">
         <v>77</v>
       </c>
       <c r="H15" s="4" t="s">
@@ -2133,55 +2406,133 @@
         <v>68</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="82.8" x14ac:dyDescent="0.25">
+      <c r="A16" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="E16" s="11">
+        <v>3</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="H16" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="I16" s="15" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="96.6" x14ac:dyDescent="0.25">
+      <c r="A17" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="E17" s="11">
+        <v>4</v>
+      </c>
+      <c r="F17" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="G17" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="H17" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="I17" s="15" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="96.6" x14ac:dyDescent="0.25">
+      <c r="A18" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="E18" s="11">
+        <v>4</v>
+      </c>
+      <c r="F18" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="G18" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="H18" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="I18" s="15" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
